--- a/results/experiment1/microbans-output-fixed.xlsx
+++ b/results/experiment1/microbans-output-fixed.xlsx
@@ -8,19 +8,31 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yangzijiang/Dropbox (Davidson College)/Davidson/04 4th Year/CSC370 - Machine Reasoning/SokobanSolver_MR_Final/results/experiment1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E6C2D0A-4712-C347-BF39-343826C8A5E3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{98CA5D27-4277-A74A-B6F2-AB871793552F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1960" yWindow="600" windowWidth="28040" windowHeight="17040"/>
+    <workbookView xWindow="-180" yWindow="520" windowWidth="28800" windowHeight="17540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="microbans-output-fixed" sheetId="1" r:id="rId1"/>
+    <sheet name="Report" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'microbans-output-fixed'!$A$1:$K$134</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="154">
   <si>
     <t>Puzzle Name</t>
   </si>
@@ -401,13 +413,122 @@
   </si>
   <si>
     <t>Euclidean</t>
+  </si>
+  <si>
+    <t>IDA* - Manhattan - Fixed (4)</t>
+  </si>
+  <si>
+    <t>IDA* - Manhattan - Fixed (1)</t>
+  </si>
+  <si>
+    <t>IDA* - Manhattan - Dynamic</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solved % </t>
+  </si>
+  <si>
+    <t>BFS</t>
+  </si>
+  <si>
+    <t>IDA* - Euclidean - Fixed (1)</t>
+  </si>
+  <si>
+    <t>IDA* - Euclidean - Fixed (4)</t>
+  </si>
+  <si>
+    <t>IDA* - Euclidean - Dynamic</t>
+  </si>
+  <si>
+    <t>Avg</t>
+  </si>
+  <si>
+    <t>Total Generated</t>
+  </si>
+  <si>
+    <t>Total Repeated</t>
+  </si>
+  <si>
+    <t>Total Fringe</t>
+  </si>
+  <si>
+    <t>Sokobans Puzzles Solved in 2 Minute</t>
+  </si>
+  <si>
+    <t>Total Explored</t>
+  </si>
+  <si>
+    <t>IDA* - Euclidean - Fixed (1) - Omtimal Path</t>
+  </si>
+  <si>
+    <t>IDA* - Manhattan - Fixed (1) - Optimal Path Length</t>
+  </si>
+  <si>
+    <t>Total Path Length</t>
+  </si>
+  <si>
+    <t>Lengths of Path</t>
+  </si>
+  <si>
+    <t>Total Duration (secs)</t>
+  </si>
+  <si>
+    <t>Nodes in Fringe</t>
+  </si>
+  <si>
+    <t>Nodes Explored</t>
+  </si>
+  <si>
+    <t>Duration (secs)</t>
+  </si>
+  <si>
+    <t>Solution Length</t>
+  </si>
+  <si>
+    <t>Solved in 2 Mins</t>
+  </si>
+  <si>
+    <t>Method - Heuristics - Bound Increment</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Table 1: Comparisons of Search Algorithms on 30 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Microban</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Puzzles</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="20" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="178" formatCode="0.0000000000"/>
+  </numFmts>
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -555,8 +676,17 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -736,8 +866,20 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -852,9 +994,250 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -897,54 +1280,114 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="16" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="34" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+  <cellStyles count="43">
+    <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="24" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="32" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="36" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="40" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="21" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="25" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="29" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="33" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="37" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="41" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="26" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="30" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="34" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="38" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="42" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="19" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="23" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="27" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="31" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="35" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="39" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="8" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="12" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="14" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="17" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="7" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="3" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="4" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="5" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="6" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="10" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="13" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="9" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Note" xfId="16" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="11" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Title" xfId="2" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="18" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="15" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1256,18 +1699,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K134"/>
+  <dimension ref="A1:L162"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="A136" sqref="A136:J162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="35.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
+    <col min="9" max="9" width="14.5" customWidth="1"/>
+    <col min="11" max="11" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1301,45 +1749,52 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F2">
-        <v>312</v>
+        <v>861</v>
       </c>
       <c r="G2">
-        <v>168</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>16</v>
+        <v>206</v>
       </c>
       <c r="I2">
-        <v>106</v>
+        <v>12144</v>
       </c>
       <c r="J2">
-        <v>0.417694091796875</v>
+        <v>64.182323932647705</v>
       </c>
       <c r="K2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+      <c r="L2">
+        <f>LEN(K2)/2</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
@@ -1348,31 +1803,35 @@
         <v>13</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>17</v>
+        <v>126</v>
       </c>
       <c r="E3" t="s">
         <v>18</v>
       </c>
       <c r="F3">
-        <v>237</v>
+        <v>1062</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>11</v>
+        <v>135</v>
       </c>
       <c r="I3">
-        <v>2181</v>
+        <v>9745</v>
       </c>
       <c r="J3">
-        <v>5.7463169097900302</v>
+        <v>57.783206939697202</v>
       </c>
       <c r="K3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L66" si="0">LEN(K3)/2</f>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1406,8 +1865,12 @@
       <c r="K4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -1441,10 +1904,14 @@
       <c r="K5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
@@ -1459,25 +1926,29 @@
         <v>18</v>
       </c>
       <c r="F6">
-        <v>239</v>
+        <v>761</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>10</v>
+        <v>98</v>
       </c>
       <c r="I6">
-        <v>3872</v>
+        <v>14475</v>
       </c>
       <c r="J6">
-        <v>11.504338979721</v>
+        <v>50.815043210983198</v>
       </c>
       <c r="K6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -1511,8 +1982,12 @@
       <c r="K7" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -1546,10 +2021,14 @@
       <c r="K8" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
@@ -1564,27 +2043,31 @@
         <v>14</v>
       </c>
       <c r="F9">
-        <v>99</v>
+        <v>8245</v>
       </c>
       <c r="G9">
-        <v>45</v>
+        <v>4845</v>
       </c>
       <c r="H9">
-        <v>12</v>
+        <v>242</v>
       </c>
       <c r="I9">
-        <v>40</v>
+        <v>2351</v>
       </c>
       <c r="J9">
-        <v>0.19061112403869601</v>
+        <v>45.306882858276303</v>
       </c>
       <c r="K9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>413</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>
@@ -1599,25 +2082,29 @@
         <v>18</v>
       </c>
       <c r="F10">
-        <v>117</v>
+        <v>1121</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="I10">
-        <v>352</v>
+        <v>8039</v>
       </c>
       <c r="J10">
-        <v>1.2359101772308301</v>
+        <v>34.763865232467602</v>
       </c>
       <c r="K10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -1651,8 +2138,12 @@
       <c r="K11" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -1686,10 +2177,14 @@
       <c r="K12" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="B13" t="s">
         <v>16</v>
@@ -1698,31 +2193,35 @@
         <v>13</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>126</v>
+        <v>17</v>
       </c>
       <c r="E13" t="s">
         <v>18</v>
       </c>
       <c r="F13">
-        <v>88</v>
+        <v>873</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>22</v>
+        <v>87</v>
       </c>
       <c r="I13">
-        <v>603</v>
+        <v>6786</v>
       </c>
       <c r="J13">
-        <v>1.77099084854125</v>
+        <v>31.891396284103301</v>
       </c>
       <c r="K13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +2255,12 @@
       <c r="K14" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -1791,45 +2294,53 @@
       <c r="K15" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>105</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C16" t="s">
         <v>13</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E16" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F16">
-        <v>1769</v>
+        <v>1271</v>
       </c>
       <c r="G16">
-        <v>1001</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>19</v>
+        <v>167</v>
       </c>
       <c r="I16">
-        <v>605</v>
+        <v>6835</v>
       </c>
       <c r="J16">
-        <v>3.5422518253326398</v>
+        <v>31.506236076354899</v>
       </c>
       <c r="K16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>100</v>
       </c>
       <c r="B17" t="s">
         <v>16</v>
@@ -1838,31 +2349,35 @@
         <v>13</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>17</v>
+        <v>126</v>
       </c>
       <c r="E17" t="s">
         <v>18</v>
       </c>
       <c r="F17">
-        <v>1121</v>
+        <v>1944</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>91</v>
+        <v>524</v>
       </c>
       <c r="I17">
-        <v>8039</v>
+        <v>6153</v>
       </c>
       <c r="J17">
-        <v>34.763865232467602</v>
+        <v>26.4527649879455</v>
       </c>
       <c r="K17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -1896,8 +2411,12 @@
       <c r="K18" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L18">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -1931,8 +2450,12 @@
       <c r="K19" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L19">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -1966,78 +2489,90 @@
       <c r="K20" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L20">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="B21" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C21" t="s">
         <v>13</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E21" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F21">
-        <v>3418</v>
+        <v>340</v>
       </c>
       <c r="G21">
-        <v>2014</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>118</v>
+        <v>52</v>
       </c>
       <c r="I21">
-        <v>901</v>
+        <v>5920</v>
       </c>
       <c r="J21">
-        <v>23.379675865173301</v>
+        <v>24.120069265365601</v>
       </c>
       <c r="K21" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>30</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C22" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E22" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F22">
-        <v>718</v>
+        <v>3418</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>2014</v>
       </c>
       <c r="H22">
-        <v>523</v>
+        <v>118</v>
       </c>
       <c r="I22">
-        <v>4294</v>
+        <v>901</v>
       </c>
       <c r="J22">
-        <v>19.286199092864901</v>
+        <v>23.379675865173301</v>
       </c>
       <c r="K22" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="0"/>
+        <v>179</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -2071,8 +2606,12 @@
       <c r="K23" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L23">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -2106,8 +2645,12 @@
       <c r="K24" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L24">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>30</v>
       </c>
@@ -2141,115 +2684,131 @@
       <c r="K25" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L25">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>35</v>
+        <v>115</v>
       </c>
       <c r="B26" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C26" t="s">
         <v>13</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>14</v>
+        <v>126</v>
       </c>
       <c r="E26" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F26">
-        <v>3130</v>
+        <v>574</v>
       </c>
       <c r="G26">
-        <v>1710</v>
+        <v>0</v>
       </c>
       <c r="H26">
-        <v>196</v>
+        <v>330</v>
       </c>
       <c r="I26">
-        <v>999</v>
+        <v>5054</v>
       </c>
       <c r="J26">
-        <v>15.4714741706848</v>
+        <v>23.244609117507899</v>
       </c>
       <c r="K26" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>110</v>
+      </c>
+      <c r="B27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F27">
+        <v>582</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>50</v>
+      </c>
+      <c r="I27">
+        <v>6379</v>
+      </c>
+      <c r="J27">
+        <v>20.806680917739801</v>
+      </c>
+      <c r="K27" t="s">
+        <v>112</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E28" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28">
+        <v>430</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>108</v>
+      </c>
+      <c r="I28">
+        <v>4684</v>
+      </c>
+      <c r="J28">
+        <v>19.901854038238501</v>
+      </c>
+      <c r="K28" t="s">
+        <v>60</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B27" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E27" t="s">
-        <v>14</v>
-      </c>
-      <c r="F27">
-        <v>2125</v>
-      </c>
-      <c r="G27">
-        <v>1148</v>
-      </c>
-      <c r="H27">
-        <v>55</v>
-      </c>
-      <c r="I27">
-        <v>823</v>
-      </c>
-      <c r="J27">
-        <v>13.3051667213439</v>
-      </c>
-      <c r="K27" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>39</v>
-      </c>
-      <c r="B28" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E28" t="s">
-        <v>14</v>
-      </c>
-      <c r="F28">
-        <v>257</v>
-      </c>
-      <c r="G28">
-        <v>132</v>
-      </c>
-      <c r="H28">
-        <v>15</v>
-      </c>
-      <c r="I28">
-        <v>98</v>
-      </c>
-      <c r="J28">
-        <v>0.32897186279296797</v>
-      </c>
-      <c r="K28" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B29" t="s">
         <v>16</v>
@@ -2264,25 +2823,29 @@
         <v>18</v>
       </c>
       <c r="F29">
-        <v>178</v>
+        <v>718</v>
       </c>
       <c r="G29">
         <v>0</v>
       </c>
       <c r="H29">
-        <v>44</v>
+        <v>523</v>
       </c>
       <c r="I29">
-        <v>781</v>
+        <v>4294</v>
       </c>
       <c r="J29">
-        <v>2.0761311054229701</v>
+        <v>19.286199092864901</v>
       </c>
       <c r="K29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>39</v>
       </c>
@@ -2316,8 +2879,12 @@
       <c r="K30" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L30">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>39</v>
       </c>
@@ -2351,43 +2918,51 @@
       <c r="K31" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L31">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B32" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C32" t="s">
         <v>13</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="E32" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F32">
-        <v>201</v>
+        <v>4976</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>2552</v>
       </c>
       <c r="H32">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="I32">
-        <v>1619</v>
+        <v>2066</v>
       </c>
       <c r="J32">
-        <v>4.5697908401489196</v>
+        <v>19.184189081191999</v>
       </c>
       <c r="K32" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="0"/>
+        <v>239</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>39</v>
       </c>
@@ -2421,8 +2996,12 @@
       <c r="K33" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L33">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>39</v>
       </c>
@@ -2456,45 +3035,53 @@
       <c r="K34" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L34">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>43</v>
+        <v>94</v>
       </c>
       <c r="B35" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C35" t="s">
         <v>13</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E35" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F35">
-        <v>4976</v>
+        <v>807</v>
       </c>
       <c r="G35">
-        <v>2552</v>
+        <v>0</v>
       </c>
       <c r="H35">
-        <v>70</v>
+        <v>115</v>
       </c>
       <c r="I35">
-        <v>2066</v>
+        <v>4167</v>
       </c>
       <c r="J35">
-        <v>19.184189081191999</v>
+        <v>17.873000860214201</v>
       </c>
       <c r="K35" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="B36" t="s">
         <v>12</v>
@@ -2509,95 +3096,107 @@
         <v>14</v>
       </c>
       <c r="F36">
-        <v>2119</v>
+        <v>2909</v>
       </c>
       <c r="G36">
-        <v>1140</v>
+        <v>1652</v>
       </c>
       <c r="H36">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="I36">
-        <v>713</v>
+        <v>863</v>
       </c>
       <c r="J36">
-        <v>13.775904893875101</v>
+        <v>17.178740978240899</v>
       </c>
       <c r="K36" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="0"/>
+        <v>235</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>47</v>
       </c>
       <c r="B37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E37" t="s">
+        <v>18</v>
+      </c>
+      <c r="F37">
+        <v>305</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>100</v>
+      </c>
+      <c r="I37">
+        <v>3191</v>
+      </c>
+      <c r="J37">
+        <v>16.144520998001099</v>
+      </c>
+      <c r="K37" t="s">
+        <v>49</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>66</v>
+      </c>
+      <c r="B38" t="s">
         <v>12</v>
       </c>
-      <c r="C37" t="s">
-        <v>13</v>
-      </c>
-      <c r="D37" s="2" t="s">
+      <c r="C38" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E38" t="s">
         <v>14</v>
       </c>
-      <c r="F37">
-        <v>501</v>
-      </c>
-      <c r="G37">
-        <v>269</v>
-      </c>
-      <c r="H37">
-        <v>21</v>
-      </c>
-      <c r="I37">
-        <v>185</v>
-      </c>
-      <c r="J37">
-        <v>1.2860801219940099</v>
-      </c>
-      <c r="K37" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>47</v>
-      </c>
-      <c r="B38" t="s">
-        <v>16</v>
-      </c>
-      <c r="C38" t="s">
-        <v>13</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E38" t="s">
-        <v>18</v>
-      </c>
       <c r="F38">
-        <v>305</v>
+        <v>3020</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>1724</v>
       </c>
       <c r="H38">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="I38">
-        <v>3191</v>
+        <v>953</v>
       </c>
       <c r="J38">
-        <v>16.144520998001099</v>
+        <v>15.692957162857001</v>
       </c>
       <c r="K38" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="0"/>
+        <v>193</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>47</v>
       </c>
@@ -2631,8 +3230,12 @@
       <c r="K39" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L39">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>47</v>
       </c>
@@ -2666,43 +3269,51 @@
       <c r="K40" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L40">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="B41" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C41" t="s">
         <v>13</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="E41" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F41">
-        <v>1062</v>
+        <v>3130</v>
       </c>
       <c r="G41">
-        <v>0</v>
+        <v>1710</v>
       </c>
       <c r="H41">
-        <v>135</v>
+        <v>196</v>
       </c>
       <c r="I41">
-        <v>9745</v>
+        <v>999</v>
       </c>
       <c r="J41">
-        <v>57.783206939697202</v>
+        <v>15.4714741706848</v>
       </c>
       <c r="K41" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="0"/>
+        <v>333</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>47</v>
       </c>
@@ -2736,8 +3347,12 @@
       <c r="K42" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L42">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>47</v>
       </c>
@@ -2771,10 +3386,14 @@
       <c r="K43" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L43">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>53</v>
+        <v>120</v>
       </c>
       <c r="B44" t="s">
         <v>12</v>
@@ -2789,27 +3408,31 @@
         <v>14</v>
       </c>
       <c r="F44">
-        <v>8245</v>
+        <v>2646</v>
       </c>
       <c r="G44">
-        <v>4845</v>
+        <v>1438</v>
       </c>
       <c r="H44">
-        <v>242</v>
+        <v>126</v>
       </c>
       <c r="I44">
-        <v>2351</v>
+        <v>922</v>
       </c>
       <c r="J44">
-        <v>45.306882858276303</v>
+        <v>14.586207866668699</v>
       </c>
       <c r="K44" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="0"/>
+        <v>282</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="B45" t="s">
         <v>12</v>
@@ -2824,60 +3447,68 @@
         <v>14</v>
       </c>
       <c r="F45">
-        <v>356</v>
+        <v>2119</v>
       </c>
       <c r="G45">
-        <v>174</v>
+        <v>1140</v>
       </c>
       <c r="H45">
-        <v>15</v>
+        <v>124</v>
       </c>
       <c r="I45">
-        <v>155</v>
+        <v>713</v>
       </c>
       <c r="J45">
-        <v>0.70175194740295399</v>
+        <v>13.775904893875101</v>
       </c>
       <c r="K45" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="0"/>
+        <v>306</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
+        <v>37</v>
+      </c>
+      <c r="B46" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E46" t="s">
+        <v>14</v>
+      </c>
+      <c r="F46">
+        <v>2125</v>
+      </c>
+      <c r="G46">
+        <v>1148</v>
+      </c>
+      <c r="H46">
         <v>55</v>
       </c>
-      <c r="B46" t="s">
-        <v>16</v>
-      </c>
-      <c r="C46" t="s">
-        <v>13</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E46" t="s">
-        <v>18</v>
-      </c>
-      <c r="F46">
-        <v>118</v>
-      </c>
-      <c r="G46">
-        <v>0</v>
-      </c>
-      <c r="H46">
-        <v>39</v>
-      </c>
       <c r="I46">
-        <v>1620</v>
+        <v>823</v>
       </c>
       <c r="J46">
-        <v>5.1349859237670898</v>
+        <v>13.3051667213439</v>
       </c>
       <c r="K46" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="0"/>
+        <v>247</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>55</v>
       </c>
@@ -2911,8 +3542,12 @@
       <c r="K47" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L47">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>55</v>
       </c>
@@ -2946,43 +3581,51 @@
       <c r="K48" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L48">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="B49" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C49" t="s">
         <v>13</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="E49" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F49">
-        <v>118</v>
+        <v>3379</v>
       </c>
       <c r="G49">
-        <v>0</v>
+        <v>1952</v>
       </c>
       <c r="H49">
-        <v>61</v>
+        <v>108</v>
       </c>
       <c r="I49">
-        <v>2598</v>
+        <v>1000</v>
       </c>
       <c r="J49">
-        <v>8.6902940273284894</v>
+        <v>13.2062699794769</v>
       </c>
       <c r="K49" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+      <c r="L49">
+        <f t="shared" si="0"/>
+        <v>202</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>55</v>
       </c>
@@ -3016,8 +3659,12 @@
       <c r="K50" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L50">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>55</v>
       </c>
@@ -3051,45 +3698,53 @@
       <c r="K51" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L51">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="B52" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C52" t="s">
         <v>13</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E52" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F52">
-        <v>466</v>
+        <v>385</v>
       </c>
       <c r="G52">
-        <v>237</v>
+        <v>0</v>
       </c>
       <c r="H52">
-        <v>25</v>
+        <v>295</v>
       </c>
       <c r="I52">
-        <v>182</v>
+        <v>3104</v>
       </c>
       <c r="J52">
-        <v>0.91652464866638095</v>
+        <v>11.905088901519701</v>
       </c>
       <c r="K52" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+      <c r="L52">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="B53" t="s">
         <v>16</v>
@@ -3098,31 +3753,35 @@
         <v>13</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>17</v>
+        <v>126</v>
       </c>
       <c r="E53" t="s">
         <v>18</v>
       </c>
       <c r="F53">
-        <v>384</v>
+        <v>239</v>
       </c>
       <c r="G53">
         <v>0</v>
       </c>
       <c r="H53">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="I53">
-        <v>2324</v>
+        <v>3872</v>
       </c>
       <c r="J53">
-        <v>9.7003278732299805</v>
+        <v>11.504338979721</v>
       </c>
       <c r="K53" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="L53">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>58</v>
       </c>
@@ -3156,8 +3815,12 @@
       <c r="K54" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L54">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>58</v>
       </c>
@@ -3191,8 +3854,12 @@
       <c r="K55" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L55">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>58</v>
       </c>
@@ -3203,31 +3870,35 @@
         <v>13</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>126</v>
+        <v>17</v>
       </c>
       <c r="E56" t="s">
         <v>18</v>
       </c>
       <c r="F56">
-        <v>430</v>
+        <v>384</v>
       </c>
       <c r="G56">
         <v>0</v>
       </c>
       <c r="H56">
-        <v>108</v>
+        <v>51</v>
       </c>
       <c r="I56">
-        <v>4684</v>
+        <v>2324</v>
       </c>
       <c r="J56">
-        <v>19.901854038238501</v>
+        <v>9.7003278732299805</v>
       </c>
       <c r="K56" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L56">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>58</v>
       </c>
@@ -3261,8 +3932,12 @@
       <c r="K57" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L57">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>58</v>
       </c>
@@ -3296,10 +3971,14 @@
       <c r="K58" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L58">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>62</v>
+        <v>105</v>
       </c>
       <c r="B59" t="s">
         <v>12</v>
@@ -3314,27 +3993,31 @@
         <v>14</v>
       </c>
       <c r="F59">
-        <v>849</v>
+        <v>4140</v>
       </c>
       <c r="G59">
-        <v>488</v>
+        <v>2447</v>
       </c>
       <c r="H59">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="I59">
-        <v>255</v>
+        <v>1252</v>
       </c>
       <c r="J59">
-        <v>1.57052302360534</v>
+        <v>9.1874721050262398</v>
       </c>
       <c r="K59" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+      <c r="L59">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B60" t="s">
         <v>16</v>
@@ -3343,31 +4026,35 @@
         <v>13</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>17</v>
+        <v>126</v>
       </c>
       <c r="E60" t="s">
         <v>18</v>
       </c>
       <c r="F60">
-        <v>224</v>
+        <v>118</v>
       </c>
       <c r="G60">
         <v>0</v>
       </c>
       <c r="H60">
-        <v>110</v>
+        <v>61</v>
       </c>
       <c r="I60">
-        <v>1207</v>
+        <v>2598</v>
       </c>
       <c r="J60">
-        <v>3.6832628250121999</v>
+        <v>8.6902940273284894</v>
       </c>
       <c r="K60" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+      <c r="L60">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>62</v>
       </c>
@@ -3401,8 +4088,12 @@
       <c r="K61" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L61">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>62</v>
       </c>
@@ -3436,10 +4127,14 @@
       <c r="K62" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L62">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="B63" t="s">
         <v>16</v>
@@ -3448,31 +4143,35 @@
         <v>13</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>126</v>
+        <v>17</v>
       </c>
       <c r="E63" t="s">
         <v>18</v>
       </c>
       <c r="F63">
-        <v>288</v>
+        <v>319</v>
       </c>
       <c r="G63">
         <v>0</v>
       </c>
       <c r="H63">
-        <v>237</v>
+        <v>63</v>
       </c>
       <c r="I63">
-        <v>2406</v>
+        <v>2377</v>
       </c>
       <c r="J63">
-        <v>7.7649621963500897</v>
+        <v>8.5213408470153809</v>
       </c>
       <c r="K63" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+      <c r="L63">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>62</v>
       </c>
@@ -3506,8 +4205,12 @@
       <c r="K64" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L64">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>62</v>
       </c>
@@ -3541,43 +4244,51 @@
       <c r="K65" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L65">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B66" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C66" t="s">
         <v>13</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>14</v>
+        <v>126</v>
       </c>
       <c r="E66" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F66">
-        <v>3020</v>
+        <v>288</v>
       </c>
       <c r="G66">
-        <v>1724</v>
+        <v>0</v>
       </c>
       <c r="H66">
-        <v>87</v>
+        <v>237</v>
       </c>
       <c r="I66">
-        <v>953</v>
+        <v>2406</v>
       </c>
       <c r="J66">
-        <v>15.692957162857001</v>
+        <v>7.7649621963500897</v>
       </c>
       <c r="K66" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+      <c r="L66">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -3611,8 +4322,12 @@
       <c r="K67" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L67">
+        <f t="shared" ref="L67:L130" si="1">LEN(K67)/2</f>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>66</v>
       </c>
@@ -3646,45 +4361,53 @@
       <c r="K68" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L68">
+        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>70</v>
+        <v>122</v>
       </c>
       <c r="B69" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C69" t="s">
         <v>13</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>14</v>
+        <v>126</v>
       </c>
       <c r="E69" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F69">
-        <v>1332</v>
+        <v>191</v>
       </c>
       <c r="G69">
-        <v>741</v>
+        <v>0</v>
       </c>
       <c r="H69">
-        <v>54</v>
+        <v>250</v>
       </c>
       <c r="I69">
-        <v>424</v>
+        <v>2222</v>
       </c>
       <c r="J69">
-        <v>3.6034588813781698</v>
+        <v>6.7437548637390101</v>
       </c>
       <c r="K69" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+      <c r="L69">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="B70" t="s">
         <v>16</v>
@@ -3699,25 +4422,29 @@
         <v>18</v>
       </c>
       <c r="F70">
-        <v>873</v>
+        <v>237</v>
       </c>
       <c r="G70">
         <v>0</v>
       </c>
       <c r="H70">
-        <v>87</v>
+        <v>11</v>
       </c>
       <c r="I70">
-        <v>6786</v>
+        <v>2181</v>
       </c>
       <c r="J70">
-        <v>31.891396284103301</v>
+        <v>5.7463169097900302</v>
       </c>
       <c r="K70" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="L70">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -3751,8 +4478,12 @@
       <c r="K71" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L71">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>70</v>
       </c>
@@ -3786,8 +4517,12 @@
       <c r="K72" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L72">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>70</v>
       </c>
@@ -3821,45 +4556,53 @@
       <c r="K73" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L73">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="B74" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C74" t="s">
         <v>13</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E74" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F74">
-        <v>1006</v>
+        <v>118</v>
       </c>
       <c r="G74">
-        <v>555</v>
+        <v>0</v>
       </c>
       <c r="H74">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="I74">
-        <v>334</v>
+        <v>1620</v>
       </c>
       <c r="J74">
-        <v>2.2182090282440101</v>
+        <v>5.1349859237670898</v>
       </c>
       <c r="K74" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+      <c r="L74">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="B75" t="s">
         <v>16</v>
@@ -3868,31 +4611,35 @@
         <v>13</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>17</v>
+        <v>126</v>
       </c>
       <c r="E75" t="s">
         <v>18</v>
       </c>
       <c r="F75">
-        <v>861</v>
+        <v>201</v>
       </c>
       <c r="G75">
         <v>0</v>
       </c>
       <c r="H75">
-        <v>206</v>
+        <v>82</v>
       </c>
       <c r="I75">
-        <v>12144</v>
+        <v>1619</v>
       </c>
       <c r="J75">
-        <v>64.182323932647705</v>
+        <v>4.5697908401489196</v>
       </c>
       <c r="K75" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="L75">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>76</v>
       </c>
@@ -3926,8 +4673,12 @@
       <c r="K76" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L76">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>76</v>
       </c>
@@ -3961,10 +4712,14 @@
       <c r="K77" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L77">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="B78" t="s">
         <v>12</v>
@@ -3979,60 +4734,68 @@
         <v>14</v>
       </c>
       <c r="F78">
-        <v>193</v>
+        <v>1718</v>
       </c>
       <c r="G78">
-        <v>89</v>
+        <v>1029</v>
       </c>
       <c r="H78">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="I78">
-        <v>84</v>
+        <v>485</v>
       </c>
       <c r="J78">
-        <v>0.32387399673461897</v>
+        <v>4.4482481479644704</v>
       </c>
       <c r="K78" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+      <c r="L78">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="B79" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C79" t="s">
         <v>13</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E79" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F79">
-        <v>111</v>
+        <v>1709</v>
       </c>
       <c r="G79">
-        <v>0</v>
+        <v>1005</v>
       </c>
       <c r="H79">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="I79">
-        <v>353</v>
+        <v>479</v>
       </c>
       <c r="J79">
-        <v>0.87770390510559004</v>
+        <v>4.3010458946228001</v>
       </c>
       <c r="K79" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+      <c r="L79">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>80</v>
       </c>
@@ -4066,8 +4829,12 @@
       <c r="K80" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L80">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>80</v>
       </c>
@@ -4101,10 +4868,14 @@
       <c r="K81" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L81">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="B82" t="s">
         <v>16</v>
@@ -4113,31 +4884,35 @@
         <v>13</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>126</v>
+        <v>17</v>
       </c>
       <c r="E82" t="s">
         <v>18</v>
       </c>
       <c r="F82">
-        <v>134</v>
+        <v>191</v>
       </c>
       <c r="G82">
         <v>0</v>
       </c>
       <c r="H82">
-        <v>20</v>
+        <v>128</v>
       </c>
       <c r="I82">
-        <v>642</v>
+        <v>1409</v>
       </c>
       <c r="J82">
-        <v>1.6129128932952801</v>
+        <v>4.2565948963165203</v>
       </c>
       <c r="K82" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+      <c r="L82">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>80</v>
       </c>
@@ -4171,8 +4946,12 @@
       <c r="K83" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L83">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>80</v>
       </c>
@@ -4206,43 +4985,51 @@
       <c r="K84" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L84">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="B85" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C85" t="s">
         <v>13</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E85" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F85">
-        <v>2909</v>
+        <v>224</v>
       </c>
       <c r="G85">
-        <v>1652</v>
+        <v>0</v>
       </c>
       <c r="H85">
-        <v>143</v>
+        <v>110</v>
       </c>
       <c r="I85">
-        <v>863</v>
+        <v>1207</v>
       </c>
       <c r="J85">
-        <v>17.178740978240899</v>
+        <v>3.6832628250121999</v>
       </c>
       <c r="K85" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+      <c r="L85">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>84</v>
       </c>
@@ -4276,8 +5063,12 @@
       <c r="K86" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L86">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>84</v>
       </c>
@@ -4311,8 +5102,12 @@
       <c r="K87" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L87">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>84</v>
       </c>
@@ -4346,10 +5141,14 @@
       <c r="K88" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L88">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="B89" t="s">
         <v>12</v>
@@ -4364,60 +5163,68 @@
         <v>14</v>
       </c>
       <c r="F89">
-        <v>710</v>
+        <v>1332</v>
       </c>
       <c r="G89">
-        <v>377</v>
+        <v>741</v>
       </c>
       <c r="H89">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="I89">
-        <v>245</v>
+        <v>424</v>
       </c>
       <c r="J89">
-        <v>1.5441269874572701</v>
+        <v>3.6034588813781698</v>
       </c>
       <c r="K89" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+      <c r="L89">
+        <f t="shared" si="1"/>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="B90" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C90" t="s">
         <v>13</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E90" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F90">
-        <v>340</v>
+        <v>1769</v>
       </c>
       <c r="G90">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="H90">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="I90">
-        <v>5920</v>
+        <v>605</v>
       </c>
       <c r="J90">
-        <v>24.120069265365601</v>
+        <v>3.5422518253326398</v>
       </c>
       <c r="K90" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+      <c r="L90">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>89</v>
       </c>
@@ -4451,8 +5258,12 @@
       <c r="K91" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L91">
+        <f t="shared" si="1"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>89</v>
       </c>
@@ -4486,8 +5297,12 @@
       <c r="K92" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L92">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>89</v>
       </c>
@@ -4521,10 +5336,14 @@
       <c r="K93" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L93">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="B94" t="s">
         <v>12</v>
@@ -4539,27 +5358,31 @@
         <v>14</v>
       </c>
       <c r="F94">
-        <v>1718</v>
+        <v>1006</v>
       </c>
       <c r="G94">
-        <v>1029</v>
+        <v>555</v>
       </c>
       <c r="H94">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="I94">
-        <v>485</v>
+        <v>334</v>
       </c>
       <c r="J94">
-        <v>4.4482481479644704</v>
+        <v>2.2182090282440101</v>
       </c>
       <c r="K94" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+      <c r="L94">
+        <f t="shared" si="1"/>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>94</v>
+        <v>39</v>
       </c>
       <c r="B95" t="s">
         <v>16</v>
@@ -4574,25 +5397,29 @@
         <v>18</v>
       </c>
       <c r="F95">
-        <v>807</v>
+        <v>178</v>
       </c>
       <c r="G95">
         <v>0</v>
       </c>
       <c r="H95">
-        <v>115</v>
+        <v>44</v>
       </c>
       <c r="I95">
-        <v>4167</v>
+        <v>781</v>
       </c>
       <c r="J95">
-        <v>17.873000860214201</v>
+        <v>2.0761311054229701</v>
       </c>
       <c r="K95" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="L95">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>94</v>
       </c>
@@ -4626,8 +5453,12 @@
       <c r="K96" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L96">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>94</v>
       </c>
@@ -4661,8 +5492,12 @@
       <c r="K97" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L97">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>94</v>
       </c>
@@ -4696,8 +5531,12 @@
       <c r="K98" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L98">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>94</v>
       </c>
@@ -4731,10 +5570,14 @@
       <c r="K99" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L99">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="B100" t="s">
         <v>12</v>
@@ -4749,60 +5592,68 @@
         <v>14</v>
       </c>
       <c r="F100">
-        <v>3379</v>
+        <v>893</v>
       </c>
       <c r="G100">
-        <v>1952</v>
+        <v>515</v>
       </c>
       <c r="H100">
-        <v>108</v>
+        <v>31</v>
       </c>
       <c r="I100">
-        <v>1000</v>
+        <v>273</v>
       </c>
       <c r="J100">
-        <v>13.2062699794769</v>
+        <v>2.06103086471557</v>
       </c>
       <c r="K100" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+      <c r="L100">
+        <f t="shared" si="1"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="B101" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C101" t="s">
         <v>13</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E101" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F101">
-        <v>385</v>
+        <v>845</v>
       </c>
       <c r="G101">
-        <v>0</v>
+        <v>428</v>
       </c>
       <c r="H101">
-        <v>295</v>
+        <v>28</v>
       </c>
       <c r="I101">
-        <v>3104</v>
+        <v>354</v>
       </c>
       <c r="J101">
-        <v>11.905088901519701</v>
+        <v>1.82066893577575</v>
       </c>
       <c r="K101" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+      <c r="L101">
+        <f t="shared" si="1"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>100</v>
       </c>
@@ -4836,8 +5687,12 @@
       <c r="K102" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L102">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>100</v>
       </c>
@@ -4871,10 +5726,14 @@
       <c r="K103" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L103">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="B104" t="s">
         <v>16</v>
@@ -4889,25 +5748,29 @@
         <v>18</v>
       </c>
       <c r="F104">
-        <v>1944</v>
+        <v>88</v>
       </c>
       <c r="G104">
         <v>0</v>
       </c>
       <c r="H104">
-        <v>524</v>
+        <v>22</v>
       </c>
       <c r="I104">
-        <v>6153</v>
+        <v>603</v>
       </c>
       <c r="J104">
-        <v>26.4527649879455</v>
+        <v>1.77099084854125</v>
       </c>
       <c r="K104" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+      <c r="L104">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>100</v>
       </c>
@@ -4941,8 +5804,12 @@
       <c r="K105" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L105">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>100</v>
       </c>
@@ -4976,78 +5843,90 @@
       <c r="K106" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L106">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="B107" t="s">
+        <v>16</v>
+      </c>
+      <c r="C107" t="s">
+        <v>13</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E107" t="s">
+        <v>18</v>
+      </c>
+      <c r="F107">
+        <v>134</v>
+      </c>
+      <c r="G107">
+        <v>0</v>
+      </c>
+      <c r="H107">
+        <v>20</v>
+      </c>
+      <c r="I107">
+        <v>642</v>
+      </c>
+      <c r="J107">
+        <v>1.6129128932952801</v>
+      </c>
+      <c r="K107" t="s">
+        <v>82</v>
+      </c>
+      <c r="L107">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>62</v>
+      </c>
+      <c r="B108" t="s">
         <v>12</v>
       </c>
-      <c r="C107" t="s">
-        <v>13</v>
-      </c>
-      <c r="D107" s="2" t="s">
+      <c r="C108" t="s">
+        <v>13</v>
+      </c>
+      <c r="D108" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E107" t="s">
+      <c r="E108" t="s">
         <v>14</v>
       </c>
-      <c r="F107">
-        <v>4140</v>
-      </c>
-      <c r="G107">
-        <v>2447</v>
-      </c>
-      <c r="H107">
-        <v>26</v>
-      </c>
-      <c r="I107">
-        <v>1252</v>
-      </c>
-      <c r="J107">
-        <v>9.1874721050262398</v>
-      </c>
-      <c r="K107" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
-        <v>105</v>
-      </c>
-      <c r="B108" t="s">
-        <v>16</v>
-      </c>
-      <c r="C108" t="s">
-        <v>13</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E108" t="s">
-        <v>18</v>
-      </c>
       <c r="F108">
-        <v>1271</v>
+        <v>849</v>
       </c>
       <c r="G108">
-        <v>0</v>
+        <v>488</v>
       </c>
       <c r="H108">
-        <v>167</v>
+        <v>38</v>
       </c>
       <c r="I108">
-        <v>6835</v>
+        <v>255</v>
       </c>
       <c r="J108">
-        <v>31.506236076354899</v>
+        <v>1.57052302360534</v>
       </c>
       <c r="K108" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+      <c r="L108">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>105</v>
       </c>
@@ -5081,8 +5960,12 @@
       <c r="K109" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L109">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>105</v>
       </c>
@@ -5116,8 +5999,12 @@
       <c r="K110" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L110">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>105</v>
       </c>
@@ -5151,8 +6038,12 @@
       <c r="K111" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L111">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>105</v>
       </c>
@@ -5186,10 +6077,14 @@
       <c r="K112" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L112">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="B113" t="s">
         <v>12</v>
@@ -5204,60 +6099,68 @@
         <v>14</v>
       </c>
       <c r="F113">
-        <v>845</v>
+        <v>710</v>
       </c>
       <c r="G113">
-        <v>428</v>
+        <v>377</v>
       </c>
       <c r="H113">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="I113">
-        <v>354</v>
+        <v>245</v>
       </c>
       <c r="J113">
-        <v>1.82066893577575</v>
+        <v>1.5441269874572701</v>
       </c>
       <c r="K113" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+      <c r="L113">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>110</v>
+        <v>47</v>
       </c>
       <c r="B114" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C114" t="s">
         <v>13</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E114" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F114">
-        <v>582</v>
+        <v>501</v>
       </c>
       <c r="G114">
-        <v>0</v>
+        <v>269</v>
       </c>
       <c r="H114">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="I114">
-        <v>6379</v>
+        <v>185</v>
       </c>
       <c r="J114">
-        <v>20.806680917739801</v>
+        <v>1.2860801219940099</v>
       </c>
       <c r="K114" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+      <c r="L114">
+        <f t="shared" si="1"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>110</v>
       </c>
@@ -5291,8 +6194,12 @@
       <c r="K115" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L115">
+        <f t="shared" si="1"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>110</v>
       </c>
@@ -5326,10 +6233,14 @@
       <c r="K116" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L116">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>110</v>
+        <v>23</v>
       </c>
       <c r="B117" t="s">
         <v>16</v>
@@ -5338,31 +6249,35 @@
         <v>13</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>126</v>
+        <v>17</v>
       </c>
       <c r="E117" t="s">
         <v>18</v>
       </c>
       <c r="F117">
-        <v>761</v>
+        <v>117</v>
       </c>
       <c r="G117">
         <v>0</v>
       </c>
       <c r="H117">
-        <v>98</v>
+        <v>10</v>
       </c>
       <c r="I117">
-        <v>14475</v>
+        <v>352</v>
       </c>
       <c r="J117">
-        <v>50.815043210983198</v>
+        <v>1.2359101772308301</v>
       </c>
       <c r="K117" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+      <c r="L117">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>110</v>
       </c>
@@ -5396,8 +6311,12 @@
       <c r="K118" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L118">
+        <f t="shared" si="1"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>110</v>
       </c>
@@ -5431,10 +6350,14 @@
       <c r="K119" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L119">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>115</v>
+        <v>58</v>
       </c>
       <c r="B120" t="s">
         <v>12</v>
@@ -5449,27 +6372,31 @@
         <v>14</v>
       </c>
       <c r="F120">
-        <v>893</v>
+        <v>466</v>
       </c>
       <c r="G120">
-        <v>515</v>
+        <v>237</v>
       </c>
       <c r="H120">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I120">
-        <v>273</v>
+        <v>182</v>
       </c>
       <c r="J120">
-        <v>2.06103086471557</v>
+        <v>0.91652464866638095</v>
       </c>
       <c r="K120" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+      <c r="L120">
+        <f t="shared" si="1"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>115</v>
+        <v>80</v>
       </c>
       <c r="B121" t="s">
         <v>16</v>
@@ -5484,25 +6411,29 @@
         <v>18</v>
       </c>
       <c r="F121">
-        <v>319</v>
+        <v>111</v>
       </c>
       <c r="G121">
         <v>0</v>
       </c>
       <c r="H121">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="I121">
-        <v>2377</v>
+        <v>353</v>
       </c>
       <c r="J121">
-        <v>8.5213408470153809</v>
+        <v>0.87770390510559004</v>
       </c>
       <c r="K121" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+      <c r="L121">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>115</v>
       </c>
@@ -5536,8 +6467,12 @@
       <c r="K122" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L122">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>115</v>
       </c>
@@ -5571,43 +6506,51 @@
       <c r="K123" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L123">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>115</v>
+        <v>55</v>
       </c>
       <c r="B124" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C124" t="s">
         <v>13</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="E124" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F124">
-        <v>574</v>
+        <v>356</v>
       </c>
       <c r="G124">
-        <v>0</v>
+        <v>174</v>
       </c>
       <c r="H124">
-        <v>330</v>
+        <v>15</v>
       </c>
       <c r="I124">
-        <v>5054</v>
+        <v>155</v>
       </c>
       <c r="J124">
-        <v>23.244609117507899</v>
+        <v>0.70175194740295399</v>
       </c>
       <c r="K124" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+      <c r="L124">
+        <f t="shared" si="1"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>115</v>
       </c>
@@ -5641,8 +6584,12 @@
       <c r="K125" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L125">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>115</v>
       </c>
@@ -5676,10 +6623,14 @@
       <c r="K126" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L126">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>120</v>
+        <v>11</v>
       </c>
       <c r="B127" t="s">
         <v>12</v>
@@ -5694,27 +6645,31 @@
         <v>14</v>
       </c>
       <c r="F127">
-        <v>2646</v>
+        <v>312</v>
       </c>
       <c r="G127">
-        <v>1438</v>
+        <v>168</v>
       </c>
       <c r="H127">
-        <v>126</v>
+        <v>16</v>
       </c>
       <c r="I127">
-        <v>922</v>
+        <v>106</v>
       </c>
       <c r="J127">
-        <v>14.586207866668699</v>
+        <v>0.417694091796875</v>
       </c>
       <c r="K127" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="L127">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>122</v>
+        <v>39</v>
       </c>
       <c r="B128" t="s">
         <v>12</v>
@@ -5729,60 +6684,68 @@
         <v>14</v>
       </c>
       <c r="F128">
-        <v>1709</v>
+        <v>257</v>
       </c>
       <c r="G128">
-        <v>1005</v>
+        <v>132</v>
       </c>
       <c r="H128">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="I128">
-        <v>479</v>
+        <v>98</v>
       </c>
       <c r="J128">
-        <v>4.3010458946228001</v>
+        <v>0.32897186279296797</v>
       </c>
       <c r="K128" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="L128">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>122</v>
+        <v>80</v>
       </c>
       <c r="B129" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C129" t="s">
         <v>13</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E129" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F129">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="G129">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="H129">
-        <v>128</v>
+        <v>15</v>
       </c>
       <c r="I129">
-        <v>1409</v>
+        <v>84</v>
       </c>
       <c r="J129">
-        <v>4.2565948963165203</v>
+        <v>0.32387399673461897</v>
       </c>
       <c r="K129" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+      <c r="L129">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>122</v>
       </c>
@@ -5816,8 +6779,12 @@
       <c r="K130" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L130">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>122</v>
       </c>
@@ -5851,43 +6818,51 @@
       <c r="K131" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L131">
+        <f t="shared" ref="L131:L134" si="2">LEN(K131)/2</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>122</v>
+        <v>23</v>
       </c>
       <c r="B132" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C132" t="s">
         <v>13</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="E132" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F132">
-        <v>191</v>
+        <v>99</v>
       </c>
       <c r="G132">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="H132">
-        <v>250</v>
+        <v>12</v>
       </c>
       <c r="I132">
-        <v>2222</v>
+        <v>40</v>
       </c>
       <c r="J132">
-        <v>6.7437548637390101</v>
+        <v>0.19061112403869601</v>
       </c>
       <c r="K132" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="L132">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>122</v>
       </c>
@@ -5921,8 +6896,12 @@
       <c r="K133" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L133">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>122</v>
       </c>
@@ -5956,8 +6935,1163 @@
       <c r="K134" t="s">
         <v>124</v>
       </c>
+      <c r="L134">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B136" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B137" t="s">
+        <v>13</v>
+      </c>
+      <c r="C137" t="s">
+        <v>130</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F137" t="s">
+        <v>137</v>
+      </c>
+      <c r="G137" t="s">
+        <v>136</v>
+      </c>
+      <c r="I137" t="s">
+        <v>138</v>
+      </c>
+      <c r="J137" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>132</v>
+      </c>
+      <c r="B138">
+        <f>COUNTIF($B$9:$B$132,"bfs")</f>
+        <v>27</v>
+      </c>
+      <c r="C138">
+        <v>30</v>
+      </c>
+      <c r="D138" s="4">
+        <f>B138/C138</f>
+        <v>0.9</v>
+      </c>
+      <c r="F138">
+        <f>SUMIF($B$9:$B$134,"bfs",$F$2:$F$134)</f>
+        <v>16413</v>
+      </c>
+      <c r="G138" s="3">
+        <f>F138/B138</f>
+        <v>607.88888888888891</v>
+      </c>
+      <c r="I138">
+        <f>SUMIF($B$9:$B$134,"bfs",$G$2:$G$134)</f>
+        <v>3321</v>
+      </c>
+      <c r="J138">
+        <f>I138/B138</f>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>128</v>
+      </c>
+      <c r="B139">
+        <f>COUNTIFS($D$2:$D$134,"Manhattan",$E$2:$E$134,"Fixed (1)")</f>
+        <v>19</v>
+      </c>
+      <c r="C139">
+        <v>30</v>
+      </c>
+      <c r="D139" s="4">
+        <f t="shared" ref="D139:D144" si="3">B139/C139</f>
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="F139">
+        <f>SUMIFS($F$2:$F$134, $D$2:$D$134,"Manhattan",$E$2:$E$134,"Fixed (1)")</f>
+        <v>9142</v>
+      </c>
+      <c r="G139" s="3">
+        <f t="shared" ref="G139:G144" si="4">F139/B139</f>
+        <v>481.15789473684208</v>
+      </c>
+      <c r="I139">
+        <f>SUMIFS($G$2:$G$134, $D$2:$D$134,"Manhattan",$E$2:$E$134,"Fixed (1)")</f>
+        <v>0</v>
+      </c>
+      <c r="J139">
+        <f t="shared" ref="J139:J144" si="5">I139/B139</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>127</v>
+      </c>
+      <c r="B140">
+        <f>COUNTIFS($D$2:$D$135,"Manhattan",$E$2:$E$135,"Fixed (4)")</f>
+        <v>21</v>
+      </c>
+      <c r="C140">
+        <v>30</v>
+      </c>
+      <c r="D140" s="4">
+        <f t="shared" si="3"/>
+        <v>0.7</v>
+      </c>
+      <c r="F140">
+        <f>SUMIFS($F$2:$F$134, $D$2:$D$134,"Manhattan",$E$2:$E$134,"Fixed (4)")</f>
+        <v>11117</v>
+      </c>
+      <c r="G140" s="3">
+        <f t="shared" si="4"/>
+        <v>529.38095238095241</v>
+      </c>
+      <c r="I140">
+        <f>SUMIFS($G$2:$G$134, $D$2:$D$134,"Manhattan",$E$2:$E$134,"Fixed (4)")</f>
+        <v>0</v>
+      </c>
+      <c r="J140">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>129</v>
+      </c>
+      <c r="B141">
+        <f>COUNTIFS($D$2:$D$134,"Manhattan",$E$2:$E$134,"Dynamic")</f>
+        <v>19</v>
+      </c>
+      <c r="C141">
+        <v>30</v>
+      </c>
+      <c r="D141" s="4">
+        <f t="shared" si="3"/>
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="F141">
+        <f>SUMIFS($F$2:$F$134, $D$2:$D$134,"Manhattan",$E$2:$E$134,"Dynamic")</f>
+        <v>10135</v>
+      </c>
+      <c r="G141" s="3">
+        <f t="shared" si="4"/>
+        <v>533.42105263157896</v>
+      </c>
+      <c r="I141">
+        <f>SUMIFS($G$2:$G$134, $D$2:$D$134,"Manhattan",$E$2:$E$134,"Dynamic")</f>
+        <v>0</v>
+      </c>
+      <c r="J141">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>133</v>
+      </c>
+      <c r="B142">
+        <f>COUNTIFS($D$2:$D$134,"Euclidean",$E$2:$E$134,"Fixed (1)")</f>
+        <v>12</v>
+      </c>
+      <c r="C142">
+        <v>30</v>
+      </c>
+      <c r="D142" s="4">
+        <f t="shared" si="3"/>
+        <v>0.4</v>
+      </c>
+      <c r="F142">
+        <f>SUMIFS($F$2:$F$134, $D$2:$D$134,"Euclidean",$E$2:$E$134,"Fixed (1)")</f>
+        <v>6030</v>
+      </c>
+      <c r="G142" s="3">
+        <f t="shared" si="4"/>
+        <v>502.5</v>
+      </c>
+      <c r="I142">
+        <f>SUMIFS($G$2:$G$134, $D$2:$D$134,"Euclidean",$E$2:$E$134,"Fixed (1)")</f>
+        <v>0</v>
+      </c>
+      <c r="J142">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>134</v>
+      </c>
+      <c r="B143">
+        <f>COUNTIFS($D$2:$D$134,"Euclidean",$E$2:$E$134,"Fixed (4)")</f>
+        <v>21</v>
+      </c>
+      <c r="C143">
+        <v>30</v>
+      </c>
+      <c r="D143" s="4">
+        <f t="shared" si="3"/>
+        <v>0.7</v>
+      </c>
+      <c r="F143">
+        <f>SUMIFS($F$2:$F$134, $D$2:$D$134,"Euclidean",$E$2:$E$134,"Fixed (4)")</f>
+        <v>11569</v>
+      </c>
+      <c r="G143" s="3">
+        <f t="shared" si="4"/>
+        <v>550.90476190476193</v>
+      </c>
+      <c r="I143">
+        <f>SUMIFS($G$2:$G$134, $D$2:$D$134,"Euclidean",$E$2:$E$134,"Fixed (4)")</f>
+        <v>0</v>
+      </c>
+      <c r="J143">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>135</v>
+      </c>
+      <c r="B144">
+        <f>COUNTIFS($D$2:$D$134,"Euclidean",$E$2:$E$134,"Dynamic")</f>
+        <v>14</v>
+      </c>
+      <c r="C144">
+        <v>30</v>
+      </c>
+      <c r="D144" s="4">
+        <f t="shared" si="3"/>
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="F144">
+        <f>SUMIFS($F$2:$F$134, $D$2:$D$134,"Euclidean",$E$2:$E$134,"Dynamic")</f>
+        <v>8037</v>
+      </c>
+      <c r="G144" s="3">
+        <f t="shared" si="4"/>
+        <v>574.07142857142856</v>
+      </c>
+      <c r="I144">
+        <f>SUMIFS($G$2:$G$134, $D$2:$D$134,"Euclidean",$E$2:$E$134,"Dynamic")</f>
+        <v>0</v>
+      </c>
+      <c r="J144">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B146" t="s">
+        <v>139</v>
+      </c>
+      <c r="C146" t="s">
+        <v>136</v>
+      </c>
+      <c r="F146" t="s">
+        <v>141</v>
+      </c>
+      <c r="G146" t="s">
+        <v>136</v>
+      </c>
+      <c r="I146" t="s">
+        <v>146</v>
+      </c>
+      <c r="J146" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>132</v>
+      </c>
+      <c r="B147">
+        <f>SUMIF($B$9:$B$134,"bfs",$H$2:$H$134)</f>
+        <v>3096</v>
+      </c>
+      <c r="C147" s="3">
+        <f>B147/B138</f>
+        <v>114.66666666666667</v>
+      </c>
+      <c r="F147">
+        <f>SUMIF($B$9:$B$134,"bfs",$I$2:$I$134)</f>
+        <v>70217</v>
+      </c>
+      <c r="G147" s="3">
+        <f>F147/B138</f>
+        <v>2600.6296296296296</v>
+      </c>
+      <c r="I147" s="3">
+        <f>SUMIF($B$9:$B$134,"bfs",$J$2:$J$134)</f>
+        <v>347.98502039909312</v>
+      </c>
+      <c r="J147" s="3">
+        <f>I147/B138</f>
+        <v>12.8883340888553</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>128</v>
+      </c>
+      <c r="B148">
+        <f>SUMIFS($H$2:$H$134, $D$2:$D$134,"Manhattan",$E$2:$E$134,"Fixed (1)")</f>
+        <v>2163</v>
+      </c>
+      <c r="C148" s="3">
+        <f>B148/B139</f>
+        <v>113.84210526315789</v>
+      </c>
+      <c r="F148">
+        <f>SUMIFS($I$2:$I$134, $D$2:$D$134,"Manhattan",$E$2:$E$134,"Fixed (1)")</f>
+        <v>73463</v>
+      </c>
+      <c r="G148" s="3">
+        <f t="shared" ref="G148:G153" si="6">F148/B139</f>
+        <v>3866.4736842105262</v>
+      </c>
+      <c r="I148" s="3">
+        <f>SUMIFS($J$2:$J$134, $D$2:$D$134,"Manhattan",$E$2:$E$134,"Fixed (1)")</f>
+        <v>313.71195602416947</v>
+      </c>
+      <c r="J148" s="3">
+        <f t="shared" ref="J148:J153" si="7">I148/B139</f>
+        <v>16.511155580219445</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>127</v>
+      </c>
+      <c r="B149">
+        <f>SUMIFS($H$2:$H$134, $D$2:$D$134,"Manhattan",$E$2:$E$134,"Fixed (4)")</f>
+        <v>1814</v>
+      </c>
+      <c r="C149" s="3">
+        <f>B149/B140</f>
+        <v>86.38095238095238</v>
+      </c>
+      <c r="F149">
+        <f>SUMIFS($I$2:$I$134, $D$2:$D$134,"Manhattan",$E$2:$E$134,"Fixed (4)")</f>
+        <v>52067</v>
+      </c>
+      <c r="G149" s="3">
+        <f t="shared" si="6"/>
+        <v>2479.3809523809523</v>
+      </c>
+      <c r="I149" s="3">
+        <f>SUMIFS($J$2:$J$134, $D$2:$D$134,"Manhattan",$E$2:$E$134,"Fixed (4)")</f>
+        <v>254.65401196479749</v>
+      </c>
+      <c r="J149" s="3">
+        <f t="shared" si="7"/>
+        <v>12.126381522133213</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>129</v>
+      </c>
+      <c r="B150">
+        <f>SUMIFS($H$2:$H$134, $D$2:$D$134,"Manhattan",$E$2:$E$134,"Dynamic")</f>
+        <v>2241</v>
+      </c>
+      <c r="C150" s="3">
+        <f>B150/B141</f>
+        <v>117.94736842105263</v>
+      </c>
+      <c r="F150">
+        <f>SUMIFS($I$2:$I$134, $D$2:$D$134,"Manhattan",$E$2:$E$134,"Dynamic")</f>
+        <v>65918</v>
+      </c>
+      <c r="G150" s="3">
+        <f t="shared" si="6"/>
+        <v>3469.3684210526317</v>
+      </c>
+      <c r="I150" s="3">
+        <f>SUMIFS($J$2:$J$134, $D$2:$D$134,"Manhattan",$E$2:$E$134,"Dynamic")</f>
+        <v>296.80949282646122</v>
+      </c>
+      <c r="J150" s="3">
+        <f t="shared" si="7"/>
+        <v>15.621552254024275</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>133</v>
+      </c>
+      <c r="B151">
+        <f>SUMIFS($H$2:$H$134, $D$2:$D$134,"Euclidean",$E$2:$E$134,"Fixed (1)")</f>
+        <v>1877</v>
+      </c>
+      <c r="C151" s="3">
+        <f>B151/B142</f>
+        <v>156.41666666666666</v>
+      </c>
+      <c r="F151">
+        <f>SUMIFS($I$2:$I$134, $D$2:$D$134,"Euclidean",$E$2:$E$134,"Fixed (1)")</f>
+        <v>54073</v>
+      </c>
+      <c r="G151" s="3">
+        <f>F151/B142</f>
+        <v>4506.083333333333</v>
+      </c>
+      <c r="I151" s="3">
+        <f>SUMIFS($J$2:$J$134, $D$2:$D$134,"Euclidean",$E$2:$E$134,"Fixed (1)")</f>
+        <v>220.85452294349639</v>
+      </c>
+      <c r="J151" s="3">
+        <f t="shared" si="7"/>
+        <v>18.4045435786247</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>134</v>
+      </c>
+      <c r="B152">
+        <f>SUMIFS($H$2:$H$134, $D$2:$D$134,"Euclidean",$E$2:$E$134,"Fixed (4)")</f>
+        <v>1942</v>
+      </c>
+      <c r="C152" s="3">
+        <f>B152/B143</f>
+        <v>92.476190476190482</v>
+      </c>
+      <c r="F152">
+        <f>SUMIFS($I$2:$I$134, $D$2:$D$134,"Euclidean",$E$2:$E$134,"Fixed (4)")</f>
+        <v>61388</v>
+      </c>
+      <c r="G152" s="3">
+        <f t="shared" si="6"/>
+        <v>2923.2380952380954</v>
+      </c>
+      <c r="I152" s="3">
+        <f>SUMIFS($J$2:$J$134, $D$2:$D$134,"Euclidean",$E$2:$E$134,"Fixed (4)")</f>
+        <v>305.465868234634</v>
+      </c>
+      <c r="J152" s="3">
+        <f t="shared" si="7"/>
+        <v>14.545993725458763</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>135</v>
+      </c>
+      <c r="B153">
+        <f>SUMIFS($H$2:$H$134, $D$2:$D$134,"Euclidean",$E$2:$E$134,"Dynamic")</f>
+        <v>2710</v>
+      </c>
+      <c r="C153" s="3">
+        <f>B153/B144</f>
+        <v>193.57142857142858</v>
+      </c>
+      <c r="F153">
+        <f>SUMIFS($I$2:$I$134, $D$2:$D$134,"Euclidean",$E$2:$E$134,"Dynamic")</f>
+        <v>67637</v>
+      </c>
+      <c r="G153" s="3">
+        <f t="shared" si="6"/>
+        <v>4831.2142857142853</v>
+      </c>
+      <c r="I153" s="3">
+        <f>SUMIFS($J$2:$J$134, $D$2:$D$134,"Euclidean",$E$2:$E$134,"Dynamic")</f>
+        <v>288.99031686782808</v>
+      </c>
+      <c r="J153" s="3">
+        <f t="shared" si="7"/>
+        <v>20.642165490559147</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C155" t="s">
+        <v>144</v>
+      </c>
+      <c r="D155" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>132</v>
+      </c>
+      <c r="C156" s="3">
+        <f>SUMIF($B$9:$B$134,"bfs",$L$2:$L$134)</f>
+        <v>1304</v>
+      </c>
+      <c r="D156" s="3">
+        <f>C156/B138</f>
+        <v>48.296296296296298</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>143</v>
+      </c>
+      <c r="C157" s="3">
+        <f>SUMIFS($L$2:$L$134, $D$2:$D$134,"Manhattan",$E$2:$E$134,"Fixed (1)")</f>
+        <v>678</v>
+      </c>
+      <c r="D157" s="3">
+        <f t="shared" ref="D157:D162" si="8">C157/B139</f>
+        <v>35.684210526315788</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>127</v>
+      </c>
+      <c r="C158" s="3">
+        <f>SUMIFS($L$2:$L$134, $D$2:$D$134,"Manhattan",$E$2:$E$134,"Fixed (4)")</f>
+        <v>901</v>
+      </c>
+      <c r="D158" s="3">
+        <f t="shared" si="8"/>
+        <v>42.904761904761905</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>129</v>
+      </c>
+      <c r="C159" s="3">
+        <f>SUMIFS($L$2:$L$134, $D$2:$D$134,"Manhattan",$E$2:$E$134,"Dynamic")</f>
+        <v>700</v>
+      </c>
+      <c r="D159" s="3">
+        <f t="shared" si="8"/>
+        <v>36.842105263157897</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>142</v>
+      </c>
+      <c r="C160" s="3">
+        <f>SUMIFS($L$2:$L$134, $D$2:$D$134,"Euclidean",$E$2:$E$134,"Fixed (1)")</f>
+        <v>391</v>
+      </c>
+      <c r="D160" s="3">
+        <f t="shared" si="8"/>
+        <v>32.583333333333336</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>134</v>
+      </c>
+      <c r="C161" s="3">
+        <f>SUMIFS($L$2:$L$134, $D$2:$D$134,"Euclidean",$E$2:$E$134,"Fixed (4)")</f>
+        <v>866</v>
+      </c>
+      <c r="D161" s="3">
+        <f t="shared" si="8"/>
+        <v>41.238095238095241</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>135</v>
+      </c>
+      <c r="C162" s="3">
+        <f>SUMIFS($L$2:$L$134, $D$2:$D$134,"Euclidean",$E$2:$E$134,"Dynamic")</f>
+        <v>477</v>
+      </c>
+      <c r="D162" s="3">
+        <f t="shared" si="8"/>
+        <v>34.071428571428569</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:K134">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K132">
+      <sortCondition descending="1" ref="J1:J134"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:O29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="35" customWidth="1"/>
+    <col min="3" max="3" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5" customWidth="1"/>
+    <col min="9" max="9" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" customWidth="1"/>
+    <col min="11" max="11" width="9" customWidth="1"/>
+    <col min="12" max="12" width="9.33203125" customWidth="1"/>
+    <col min="13" max="13" width="8.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="33"/>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B3" s="18"/>
+      <c r="C3" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="D3" s="20"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="21"/>
+      <c r="H3" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="I3" s="21"/>
+      <c r="J3" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="K3" s="21"/>
+      <c r="L3" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="M3" s="21"/>
+      <c r="N3" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="O3" s="22"/>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B4" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="K4" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="L4" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="M4" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="N4" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="O4" s="24" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B5" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="C5" s="10">
+        <v>27</v>
+      </c>
+      <c r="D5" s="6">
+        <v>30</v>
+      </c>
+      <c r="E5" s="11">
+        <v>0.9</v>
+      </c>
+      <c r="F5" s="10">
+        <v>16413</v>
+      </c>
+      <c r="G5" s="12">
+        <v>607.88888888888891</v>
+      </c>
+      <c r="H5" s="10">
+        <v>3096</v>
+      </c>
+      <c r="I5" s="12">
+        <v>114.66666666666667</v>
+      </c>
+      <c r="J5" s="10">
+        <v>70217</v>
+      </c>
+      <c r="K5" s="12">
+        <v>2600.6296296296296</v>
+      </c>
+      <c r="L5" s="13">
+        <v>347.98502039909312</v>
+      </c>
+      <c r="M5" s="12">
+        <v>12.8883340888553</v>
+      </c>
+      <c r="N5" s="10">
+        <v>1304</v>
+      </c>
+      <c r="O5" s="7">
+        <v>48.296296296296298</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B6" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="C6" s="10">
+        <v>19</v>
+      </c>
+      <c r="D6" s="6">
+        <v>30</v>
+      </c>
+      <c r="E6" s="11">
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="F6" s="10">
+        <v>9142</v>
+      </c>
+      <c r="G6" s="12">
+        <v>481.15789473684208</v>
+      </c>
+      <c r="H6" s="10">
+        <v>2163</v>
+      </c>
+      <c r="I6" s="12">
+        <v>113.84210526315789</v>
+      </c>
+      <c r="J6" s="10">
+        <v>73463</v>
+      </c>
+      <c r="K6" s="12">
+        <v>3866.4736842105262</v>
+      </c>
+      <c r="L6" s="13">
+        <v>313.71195602416947</v>
+      </c>
+      <c r="M6" s="12">
+        <v>16.511155580219445</v>
+      </c>
+      <c r="N6" s="10">
+        <v>678</v>
+      </c>
+      <c r="O6" s="34">
+        <v>35.684210526315802</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B7" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="C7" s="10">
+        <v>21</v>
+      </c>
+      <c r="D7" s="6">
+        <v>30</v>
+      </c>
+      <c r="E7" s="11">
+        <v>0.7</v>
+      </c>
+      <c r="F7" s="10">
+        <v>11117</v>
+      </c>
+      <c r="G7" s="12">
+        <v>529.38095238095241</v>
+      </c>
+      <c r="H7" s="10">
+        <v>1814</v>
+      </c>
+      <c r="I7" s="12">
+        <v>86.38095238095238</v>
+      </c>
+      <c r="J7" s="10">
+        <v>52067</v>
+      </c>
+      <c r="K7" s="12">
+        <v>2479.3809523809523</v>
+      </c>
+      <c r="L7" s="13">
+        <v>254.65401196479749</v>
+      </c>
+      <c r="M7" s="12">
+        <v>12.126381522133213</v>
+      </c>
+      <c r="N7" s="10">
+        <v>901</v>
+      </c>
+      <c r="O7" s="7">
+        <v>42.904761904761905</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B8" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="C8" s="10">
+        <v>19</v>
+      </c>
+      <c r="D8" s="6">
+        <v>30</v>
+      </c>
+      <c r="E8" s="11">
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="F8" s="10">
+        <v>10135</v>
+      </c>
+      <c r="G8" s="12">
+        <v>533.42105263157896</v>
+      </c>
+      <c r="H8" s="10">
+        <v>2241</v>
+      </c>
+      <c r="I8" s="12">
+        <v>117.94736842105263</v>
+      </c>
+      <c r="J8" s="10">
+        <v>65918</v>
+      </c>
+      <c r="K8" s="12">
+        <v>3469.3684210526317</v>
+      </c>
+      <c r="L8" s="13">
+        <v>296.80949282646122</v>
+      </c>
+      <c r="M8" s="12">
+        <v>15.621552254024275</v>
+      </c>
+      <c r="N8" s="10">
+        <v>700</v>
+      </c>
+      <c r="O8" s="7">
+        <v>36.842105263157897</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B9" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="C9" s="10">
+        <v>12</v>
+      </c>
+      <c r="D9" s="6">
+        <v>30</v>
+      </c>
+      <c r="E9" s="11">
+        <v>0.4</v>
+      </c>
+      <c r="F9" s="10">
+        <v>6030</v>
+      </c>
+      <c r="G9" s="12">
+        <v>502.5</v>
+      </c>
+      <c r="H9" s="10">
+        <v>1877</v>
+      </c>
+      <c r="I9" s="12">
+        <v>156.41666666666666</v>
+      </c>
+      <c r="J9" s="10">
+        <v>54073</v>
+      </c>
+      <c r="K9" s="12">
+        <v>4506.083333333333</v>
+      </c>
+      <c r="L9" s="13">
+        <v>220.85452294349639</v>
+      </c>
+      <c r="M9" s="12">
+        <v>18.4045435786247</v>
+      </c>
+      <c r="N9" s="10">
+        <v>391</v>
+      </c>
+      <c r="O9" s="34">
+        <v>32.583333333333336</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B10" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="C10" s="10">
+        <v>21</v>
+      </c>
+      <c r="D10" s="6">
+        <v>30</v>
+      </c>
+      <c r="E10" s="11">
+        <v>0.7</v>
+      </c>
+      <c r="F10" s="10">
+        <v>11569</v>
+      </c>
+      <c r="G10" s="12">
+        <v>550.90476190476193</v>
+      </c>
+      <c r="H10" s="10">
+        <v>1942</v>
+      </c>
+      <c r="I10" s="12">
+        <v>92.476190476190482</v>
+      </c>
+      <c r="J10" s="10">
+        <v>61388</v>
+      </c>
+      <c r="K10" s="12">
+        <v>2923.2380952380954</v>
+      </c>
+      <c r="L10" s="13">
+        <v>305.465868234634</v>
+      </c>
+      <c r="M10" s="12">
+        <v>14.545993725458763</v>
+      </c>
+      <c r="N10" s="10">
+        <v>866</v>
+      </c>
+      <c r="O10" s="7">
+        <v>41.238095238095241</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="C11" s="27">
+        <v>14</v>
+      </c>
+      <c r="D11" s="8">
+        <v>30</v>
+      </c>
+      <c r="E11" s="28">
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="F11" s="27">
+        <v>8037</v>
+      </c>
+      <c r="G11" s="29">
+        <v>574.07142857142856</v>
+      </c>
+      <c r="H11" s="27">
+        <v>2710</v>
+      </c>
+      <c r="I11" s="29">
+        <v>193.57142857142858</v>
+      </c>
+      <c r="J11" s="27">
+        <v>67637</v>
+      </c>
+      <c r="K11" s="29">
+        <v>4831.2142857142853</v>
+      </c>
+      <c r="L11" s="30">
+        <v>288.99031686782808</v>
+      </c>
+      <c r="M11" s="29">
+        <v>20.642165490559147</v>
+      </c>
+      <c r="N11" s="27">
+        <v>477</v>
+      </c>
+      <c r="O11" s="9">
+        <v>34.071428571428569</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="G13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="N13" s="35"/>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="D14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="D15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="D16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D21" s="3"/>
+      <c r="I21" s="5"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D22" t="s">
+        <v>144</v>
+      </c>
+      <c r="E22" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>132</v>
+      </c>
+      <c r="D23">
+        <v>1304</v>
+      </c>
+      <c r="E23" s="3">
+        <v>48.296296296296298</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>143</v>
+      </c>
+      <c r="D24">
+        <v>678</v>
+      </c>
+      <c r="E24" s="3">
+        <v>35.684210526315788</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>127</v>
+      </c>
+      <c r="D25">
+        <v>901</v>
+      </c>
+      <c r="E25" s="3">
+        <v>42.904761904761905</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>129</v>
+      </c>
+      <c r="D26">
+        <v>700</v>
+      </c>
+      <c r="E26" s="3">
+        <v>36.842105263157897</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>142</v>
+      </c>
+      <c r="D27">
+        <v>391</v>
+      </c>
+      <c r="E27" s="3">
+        <v>32.583333333333336</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>134</v>
+      </c>
+      <c r="D28">
+        <v>866</v>
+      </c>
+      <c r="E28" s="3">
+        <v>41.238095238095241</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>135</v>
+      </c>
+      <c r="D29">
+        <v>477</v>
+      </c>
+      <c r="E29" s="3">
+        <v>34.071428571428569</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B2:O2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:O3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>